--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_4_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_4_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2063400.024826751</v>
+        <v>-1916770.375606527</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14406967.4170008</v>
+        <v>12258327.79560123</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809169</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12053449.69574132</v>
+        <v>12145748.70271412</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>219.2999699217685</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>170.0616001677816</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.11631013281968</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>24.76484596498758</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>28.11631013281968</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>28.11631013281968</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>28.11631013281968</v>
+        <v>32.64057563687699</v>
       </c>
       <c r="U4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>227.7864062905904</v>
+        <v>113.3724976641248</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>227.7864062905904</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>227.7864062905904</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.80073575392407</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>70.37329208373082</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
         <v>182.9205141195597</v>
@@ -1035,7 +1035,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>32.2005696546954</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7864062905904</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>227.7864062905904</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>227.7864062905904</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>157.0860622474458</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>346.2148070994191</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>81.48697791125832</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>42.09444105482045</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>12.82988994717962</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1376,16 +1376,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>71.7451145997105</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1531,13 +1531,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429492</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>385.1983386198539</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.4685551105455</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>63.09628120448704</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.89362580705895</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>132.7590956334168</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>385.1983386198543</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>134.5782361172335</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>134.4685551105455</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>63.09628120448681</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.89362580705895</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>132.7590956334168</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>134.5782361172335</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D22" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.4685551105455</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>63.09628120448716</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.89362580705895</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>132.7590956334168</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>134.5782361172335</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.8715224160354</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.4685551105455</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>128.9197986360705</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>106.6837044342874</v>
+        <v>103.8121020651557</v>
       </c>
       <c r="I25" t="n">
-        <v>63.09628120448716</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.89362580705895</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>132.7590956334168</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>243.2197513454117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.5897076523054</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>134.5782361172335</v>
+        <v>4.359742195861633</v>
       </c>
       <c r="D28" t="n">
-        <v>126.0090037718574</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>128.8715224160354</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>134.4685551105455</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>128.9197986360705</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>63.096281204487</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.89362580705895</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>132.7590956334168</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>205.2313529237194</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>241.7080026420591</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>243.2197513454117</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>236.4292784165725</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>204.4636562160133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.4047392545157</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2953,13 +2953,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429421</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295135</v>
+        <v>67.64901981295137</v>
       </c>
       <c r="T38" t="n">
         <v>183.0417138731735</v>
       </c>
       <c r="U38" t="n">
-        <v>220.0967589369122</v>
+        <v>220.0967589369123</v>
       </c>
       <c r="V38" t="n">
         <v>318.2399193523734</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C40" t="n">
         <v>134.5782361172335</v>
@@ -3667,7 +3667,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F40" t="n">
         <v>134.4685551105455</v>
@@ -3679,7 +3679,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448714</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705894</v>
+        <v>10.89362580705895</v>
       </c>
       <c r="S40" t="n">
         <v>132.7590956334168</v>
@@ -3755,7 +3755,7 @@
         <v>364.6210704138062</v>
       </c>
       <c r="H41" t="n">
-        <v>259.2150933680659</v>
+        <v>259.2150933680658</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V43" t="n">
-        <v>243.2197513454117</v>
+        <v>243.2197513454119</v>
       </c>
       <c r="W43" t="n">
         <v>236.4292784165725</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>1266.474498534401</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>1243.614172588105</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>1224.361955813509</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>798.3850159613667</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>777.3012381911709</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625575</v>
+        <v>372.9621757806195</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625575</v>
+        <v>75.09379725465433</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812554</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>402.8003848150211</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625575</v>
+        <v>402.8003848150211</v>
       </c>
       <c r="L2" t="n">
-        <v>2.249304810625575</v>
+        <v>900.2373440418246</v>
       </c>
       <c r="M2" t="n">
-        <v>2.249304810625575</v>
+        <v>1397.674303268628</v>
       </c>
       <c r="N2" t="n">
-        <v>2.249304810625575</v>
+        <v>1436.204485520192</v>
       </c>
       <c r="O2" t="n">
-        <v>28.95979943680427</v>
+        <v>1436.204485520192</v>
       </c>
       <c r="P2" t="n">
-        <v>56.79494646829576</v>
+        <v>1436.204485520192</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.63009349978725</v>
+        <v>1892.289965024375</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906277</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>1905.479005779418</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1684.553434824051</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1463.038313690951</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1291.258919582081</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1291.258919582081</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1283.579324790232</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>1282.282458785527</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.249304810625575</v>
+        <v>607.3204170295808</v>
       </c>
       <c r="C3" t="n">
-        <v>2.249304810625575</v>
+        <v>489.8145135470855</v>
       </c>
       <c r="D3" t="n">
-        <v>2.249304810625575</v>
+        <v>385.9745550623706</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>281.2726213353078</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>187.626791018212</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>93.57301923581596</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812554</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>47.64356896003738</v>
       </c>
       <c r="J3" t="n">
-        <v>2.249304810625575</v>
+        <v>319.3410582396285</v>
       </c>
       <c r="K3" t="n">
-        <v>2.249304810625575</v>
+        <v>816.7780174664321</v>
       </c>
       <c r="L3" t="n">
-        <v>2.249304810625575</v>
+        <v>816.7780174664321</v>
       </c>
       <c r="M3" t="n">
-        <v>2.249304810625575</v>
+        <v>816.7780174664321</v>
       </c>
       <c r="N3" t="n">
-        <v>28.95979943680427</v>
+        <v>816.7780174664321</v>
       </c>
       <c r="O3" t="n">
-        <v>28.95979943680427</v>
+        <v>816.7780174664321</v>
       </c>
       <c r="P3" t="n">
-        <v>56.79494646829576</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1766.865246493932</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1848.884556578635</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1767.56030913989</v>
       </c>
       <c r="T3" t="n">
-        <v>87.45024460704886</v>
+        <v>1625.680373437568</v>
       </c>
       <c r="U3" t="n">
-        <v>87.45024460704886</v>
+        <v>1440.912177357205</v>
       </c>
       <c r="V3" t="n">
-        <v>59.04993134157444</v>
+        <v>1235.939038496471</v>
       </c>
       <c r="W3" t="n">
-        <v>30.6496180761</v>
+        <v>1039.417661329688</v>
       </c>
       <c r="X3" t="n">
-        <v>30.6496180761</v>
+        <v>875.9403150963511</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.6496180761</v>
+        <v>736.2474264496435</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.249304810625575</v>
+        <v>951.4054854012784</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249304810625575</v>
+        <v>951.4054854012784</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249304810625575</v>
+        <v>788.0887125280491</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>621.8805066809026</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>450.0187324554631</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>283.7617627496952</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>139.9654942578496</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812554</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>97.68825422228356</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>324.2158554281207</v>
       </c>
       <c r="L4" t="n">
-        <v>2.249304810625575</v>
+        <v>678.9051767225415</v>
       </c>
       <c r="M4" t="n">
-        <v>2.249304810625575</v>
+        <v>1070.090971692792</v>
       </c>
       <c r="N4" t="n">
-        <v>30.08445184211706</v>
+        <v>1447.582482568828</v>
       </c>
       <c r="O4" t="n">
-        <v>57.91959887360855</v>
+        <v>1592.246957743614</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>1882.846169665515</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906277</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906277</v>
       </c>
       <c r="S4" t="n">
-        <v>84.0649272658043</v>
+        <v>2009.846299906277</v>
       </c>
       <c r="T4" t="n">
-        <v>55.66461400032987</v>
+        <v>1976.876021485189</v>
       </c>
       <c r="U4" t="n">
-        <v>27.26430073485544</v>
+        <v>1976.876021485189</v>
       </c>
       <c r="V4" t="n">
-        <v>27.26430073485544</v>
+        <v>1695.164554093218</v>
       </c>
       <c r="W4" t="n">
-        <v>27.26430073485544</v>
+        <v>1420.312150265731</v>
       </c>
       <c r="X4" t="n">
-        <v>27.26430073485544</v>
+        <v>1177.748253711536</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.26430073485544</v>
+        <v>951.4054854012784</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>311.8051704458862</v>
+        <v>1363.356936181991</v>
       </c>
       <c r="C5" t="n">
-        <v>288.9448444995904</v>
+        <v>1340.496610235695</v>
       </c>
       <c r="D5" t="n">
-        <v>269.6926277249947</v>
+        <v>1321.2443934611</v>
       </c>
       <c r="E5" t="n">
-        <v>39.60534864359025</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F5" t="n">
-        <v>18.52157087339454</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>18.22291250324723</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>18.22291250324723</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22291250324723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>18.22291250324723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>18.22291250324723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>18.22291250324723</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>18.22291250324723</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>117.0636635974054</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>342.5722058250899</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>568.0807480527744</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>793.589290280459</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>911.1456251623616</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>806.778331035502</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>806.778331035502</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>806.778331035502</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>576.6910519540975</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>576.6910519540975</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X5" t="n">
-        <v>346.603772872693</v>
+        <v>1380.461762437823</v>
       </c>
       <c r="Y5" t="n">
-        <v>327.6131306970121</v>
+        <v>1379.164896433117</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.22291250324723</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>18.22291250324723</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>18.22291250324723</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>18.22291250324723</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>18.22291250324723</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>18.22291250324723</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>18.22291250324723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>18.22291250324723</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>18.22291250324723</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>18.22291250324723</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>18.22291250324723</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>18.22291250324723</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>152.600688394605</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>378.1092306222895</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>603.617772849974</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>829.1263150776585</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>911.1456251623616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>840.0614917444517</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>840.0614917444517</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>655.2932956640884</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>450.3201568033547</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>450.3201568033547</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>286.8428105700176</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>147.14992192331</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.22291250324723</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="C7" t="n">
-        <v>18.22291250324723</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="D7" t="n">
-        <v>18.22291250324723</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="E7" t="n">
-        <v>18.22291250324723</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>18.22291250324723</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>18.22291250324723</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>18.22291250324723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>18.22291250324723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>18.22291250324723</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>18.22291250324723</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>18.22291250324723</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6198682385462</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>333.1284104662307</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>558.6369526939152</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>784.1454949215997</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>911.1456251623616</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>878.6197972283259</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>708.4847497474607</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>478.3974706660562</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>248.3101915846517</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>18.22291250324723</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>18.22291250324723</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>18.22291250324723</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.22291250324723</v>
+        <v>526.4132374723006</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.774797953253</v>
+        <v>862.5982923554784</v>
       </c>
       <c r="C8" t="n">
-        <v>989.8740679665527</v>
+        <v>839.7379664091826</v>
       </c>
       <c r="D8" t="n">
-        <v>970.621851191957</v>
+        <v>820.4857496345869</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6449113398146</v>
+        <v>798.5492138228485</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5611335696188</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>119.2220711590675</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082674</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>36.91199246082674</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>815.1719019525203</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y8" t="n">
-        <v>1432.582758204378</v>
+        <v>878.4062526066044</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2225928484409</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511718</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.43162988993831</v>
+        <v>558.9552516858382</v>
       </c>
       <c r="C10" t="n">
-        <v>79.43162988993831</v>
+        <v>386.9826885647542</v>
       </c>
       <c r="D10" t="n">
-        <v>79.43162988993831</v>
+        <v>223.6659156915249</v>
       </c>
       <c r="E10" t="n">
-        <v>79.43162988993831</v>
+        <v>57.45770984437846</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>57.45770984437846</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>57.45770984437846</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1774.591756481815</v>
       </c>
       <c r="V10" t="n">
-        <v>823.1906985818782</v>
+        <v>1492.880289089844</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3382947543912</v>
+        <v>1218.027885262357</v>
       </c>
       <c r="X10" t="n">
-        <v>305.7743982001963</v>
+        <v>975.4639887081618</v>
       </c>
       <c r="Y10" t="n">
-        <v>79.43162988993831</v>
+        <v>749.1212203979038</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1029.641549214052</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>602.7408192273524</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>179.4481984123527</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>179.4481984123527</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>179.4481984123527</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>106.978385685372</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>106.978385685372</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.08151442884326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.08151442884326</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>72.08151442884326</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>72.08151442884326</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>585.0012366904017</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N11" t="n">
-        <v>1477.009977747337</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>2322.154627898149</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>3030.433907056077</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>3486.51938656026</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>3604.075721442163</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>3499.708427315303</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3278.782856359936</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3020.427946956348</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2662.938532082598</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2266.547182382945</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>1854.827183550692</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1449.489913505582</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.2050054602985</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>521.6991019778033</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>417.8591434930883</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.1572097660255</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.5113794489297</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.4576076665337</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.08151442884326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.08151442884326</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>72.08151442884326</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>72.08151442884326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>72.08151442884326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>72.08151442884326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>72.08151442884326</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>961.562792440315</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1334.60435806187</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1798.74983492465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1880.769145009353</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.444897570608</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.564961868286</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1472.796765787922</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1267.823626927189</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.302249760406</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>907.8249035270688</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.1320148803612</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.1605799785071</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C13" t="n">
-        <v>124.1880168574231</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D13" t="n">
-        <v>72.08151442884326</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E13" t="n">
-        <v>72.08151442884326</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F13" t="n">
-        <v>72.08151442884326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>72.08151442884326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>72.08151442884326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.08151442884326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.5728426530013</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>356.1004438588385</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>710.7897651532593</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1101.97556012351</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.467070999546</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1834.895199679309</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.49441160121</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.494541841972</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.455928529145</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.32088104828</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.98153327418</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.797084774484</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1230.085617382513</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>955.2332135550257</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>712.6693170008308</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.3265486905728</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>721.4323712815411</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>453.8982909248284</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>453.8982909248284</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>457.138701796059</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>1461.424803215117</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N14" t="n">
-        <v>2437.675861701818</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>3282.82051185263</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>3991.099791010558</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4447.185270514741</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3767.744219562895</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3031.702772793897</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>91.29483210793288</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>91.29483210793288</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>91.29483210793288</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>91.29483210793288</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>91.29483210793288</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>91.29483210793288</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>980.7761101194045</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1696.973827157903</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.2312984619909</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>786.293686222361</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>659.0118642305858</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>528.8386092648932</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>393.0117859209076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>262.7897670965941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>155.0284494862026</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>184.1040156910041</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>445.9494722557545</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>835.9566489090885</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1262.460299238252</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1675.269665473201</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2543.247039960995</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2409.146943361584</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>2201.842546468938</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1957.693048850696</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1712.01653234018</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1473.199079394147</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1266.670133721406</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1076.362316292602</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>721.4323712815411</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>806.8031400834319</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1736.428187702709</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>1736.428187702709</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>2712.679246189409</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3282.82051185263</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>3991.099791010558</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4447.185270514741</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>91.29483210793288</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>91.29483210793288</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>91.29483210793288</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>91.29483210793288</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>91.29483210793288</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>91.29483210793288</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>980.7761101194045</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.2312984619898</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>786.29368622236</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>659.0118642305848</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>528.8386092648925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>393.0117859209072</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>262.7897670965936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>155.0284494862024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>184.1040156910041</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>445.9494722557545</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>835.9566489090885</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1262.460299238252</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1675.269665473201</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2391.932716792691</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2554.250702392366</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2543.247039960994</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2409.146943361583</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2201.842546468937</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1957.693048850696</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1712.016532340179</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1473.199079394146</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1266.670133721405</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1076.362316292601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2278.587040220165</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>91.29483210793288</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>91.29483210793288</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>457.138701796059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>1461.424803215117</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N20" t="n">
-        <v>2437.675861701818</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O20" t="n">
-        <v>3282.82051185263</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P20" t="n">
-        <v>3991.099791010558</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4447.185270514741</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3767.744219562894</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3407.387820744695</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3031.702772793896</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2662.400453630241</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>91.29483210793288</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>91.29483210793288</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M21" t="n">
-        <v>91.29483210793288</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>91.29483210793288</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>980.7761101194045</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1353.81767574096</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1817.963152603739</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.2312984619907</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>786.2936862223607</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>659.0118642305856</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>528.8386092648933</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>393.0117859209079</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>262.7897670965941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>155.0284494862027</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>184.1040156910042</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>445.9494722557547</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>835.9566489090889</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1262.460299238253</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1675.269665473202</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2543.247039960994</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2409.146943361583</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2201.842546468938</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1957.693048850696</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1712.016532340179</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1473.199079394147</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1266.670133721406</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1076.362316292602</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>721.4323712815417</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>806.8031400834319</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>806.8031400834319</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>1461.424803215117</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2437.675861701818</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3282.82051185263</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>3991.099791010558</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4447.185270514741</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4311.518642077326</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3407.387820744697</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.29483210793288</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>91.29483210793288</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>91.29483210793288</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>91.29483210793288</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>91.29483210793288</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>91.29483210793288</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>637.6199587024621</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.2312984619909</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>786.293686222361</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D25" t="n">
-        <v>659.0118642305858</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E25" t="n">
-        <v>528.8386092648934</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F25" t="n">
-        <v>393.0117859209079</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="G25" t="n">
-        <v>262.7897670965941</v>
+        <v>207.1634225625514</v>
       </c>
       <c r="H25" t="n">
-        <v>155.0284494862027</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>184.1040156910041</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>445.9494722557545</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>835.9566489090885</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1262.460299238252</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1675.269665473201</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2543.247039960995</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2409.146943361584</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2201.842546468938</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1957.693048850697</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1712.01653234018</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1473.199079394147</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1266.670133721406</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>1076.362316292602</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2278.587040220165</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1110.521602210686</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>721.4323712815408</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>91.29483210793285</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>91.29483210793285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>91.29483210793285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>457.1387017960581</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>1461.424803215116</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>2437.675861701817</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3282.820511852629</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>3991.099791010557</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4447.18527051474</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>4564.741605396643</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>3767.744219562894</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3407.387820744695</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3031.702772793897</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>91.29483210793285</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>91.29483210793285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>91.29483210793285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>91.29483210793285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>91.29483210793285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>91.29483210793285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>91.29483210793285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>637.6199587024621</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1353.81767574096</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1817.963152603739</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>922.2312984619907</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C28" t="n">
-        <v>786.2936862223605</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D28" t="n">
-        <v>659.0118642305856</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E28" t="n">
-        <v>528.8386092648932</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>393.0117859209078</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>262.789767096594</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>155.0284494862026</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>91.29483210793286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>184.1040156910041</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>445.9494722557544</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>835.9566489090884</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>1262.460299238252</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>1675.269665473201</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>2066.015649511878</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2391.932716792692</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2554.250702392367</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2543.247039960995</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2409.146943361584</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2201.842546468938</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1957.693048850696</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.01653234018</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W28" t="n">
-        <v>1473.199079394147</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X28" t="n">
-        <v>1266.670133721406</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y28" t="n">
-        <v>1076.362316292602</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6449,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.8188681099</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6503,7 +6503,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6537,31 +6537,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N30" t="n">
-        <v>102.3027134058285</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="O30" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554926</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6619,10 +6619,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6643,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>985.4544125320111</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778162</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675583</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.72126111492</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>91.29483210793288</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>91.29483210793288</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>457.138701796059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>1461.424803215117</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.675861701818</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.82051185263</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.099791010558</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.185270514741</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>91.29483210793288</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>91.29483210793288</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>91.29483210793288</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M33" t="n">
-        <v>91.29483210793288</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N33" t="n">
-        <v>91.29483210793288</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>637.6199587024621</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1353.81767574096</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619905</v>
+        <v>933.2391797598863</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223606</v>
+        <v>797.3015675202564</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305855</v>
+        <v>670.0197455284813</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648932</v>
+        <v>539.846490562789</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209078</v>
+        <v>404.0196672188035</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965942</v>
+        <v>273.7976483944898</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862028</v>
+        <v>166.0363307840984</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>195.1118969888998</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557545</v>
+        <v>456.9573535536502</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090887</v>
+        <v>846.9645302069841</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238253</v>
+        <v>1273.468180536148</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473202</v>
+        <v>1686.277546771097</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>2077.023530809774</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2402.940598090588</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2565.258583690263</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960995</v>
+        <v>2554.25492125889</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361584</v>
+        <v>2420.154824659479</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>2212.850427766833</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1968.700930148592</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.01653234018</v>
+        <v>1723.024413638075</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1484.206960692042</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>1277.678015019301</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>1087.370197590498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181376</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210688</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J35" t="n">
-        <v>91.29483210793285</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K35" t="n">
-        <v>91.29483210793285</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>457.1387017960581</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>1461.424803215116</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N35" t="n">
-        <v>2437.675861701817</v>
+        <v>2437.675861701819</v>
       </c>
       <c r="O35" t="n">
-        <v>3282.820511852629</v>
+        <v>3282.820511852631</v>
       </c>
       <c r="P35" t="n">
-        <v>3991.099791010557</v>
+        <v>3991.099791010559</v>
       </c>
       <c r="Q35" t="n">
-        <v>4447.18527051474</v>
+        <v>4447.185270514742</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151239</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077326</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555193</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744697</v>
       </c>
       <c r="X35" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984472</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K36" t="n">
-        <v>91.29483210793285</v>
+        <v>960.9238909177755</v>
       </c>
       <c r="L36" t="n">
-        <v>91.29483210793285</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="M36" t="n">
-        <v>91.29483210793285</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="N36" t="n">
-        <v>91.29483210793285</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="O36" t="n">
-        <v>637.6199587024621</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="P36" t="n">
-        <v>1353.81767574096</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q36" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R36" t="n">
         <v>1899.982462688443</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C37" t="n">
         <v>786.2936862223606</v>
@@ -7078,19 +7078,19 @@
         <v>659.0118642305855</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793289</v>
       </c>
       <c r="J37" t="n">
         <v>184.1040156910041</v>
@@ -7160,7 +7160,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.432371281541</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7175,13 +7175,13 @@
         <v>453.8982909248284</v>
       </c>
       <c r="K38" t="n">
-        <v>453.8982909248284</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L38" t="n">
-        <v>457.138701796059</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>1461.424803215117</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N38" t="n">
         <v>2437.675861701818</v>
@@ -7208,7 +7208,7 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W38" t="n">
         <v>3407.387820744696</v>
@@ -7254,25 +7254,25 @@
         <v>91.29483210793288</v>
       </c>
       <c r="K39" t="n">
-        <v>91.29483210793288</v>
+        <v>681.7797586762724</v>
       </c>
       <c r="L39" t="n">
-        <v>91.29483210793288</v>
+        <v>1518.578566759179</v>
       </c>
       <c r="M39" t="n">
-        <v>91.29483210793288</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="N39" t="n">
-        <v>91.29483210793288</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6199587024621</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P39" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q39" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R39" t="n">
         <v>1899.982462688443</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H40" t="n">
         <v>155.0284494862027</v>
@@ -7330,16 +7330,16 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J40" t="n">
-        <v>184.1040156910044</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557547</v>
+        <v>445.9494722557541</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090887</v>
+        <v>835.9566489090881</v>
       </c>
       <c r="M40" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N40" t="n">
         <v>1675.269665473201</v>
@@ -7354,10 +7354,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7388,7 +7388,7 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
         <v>1500.463591181375</v>
@@ -7397,10 +7397,10 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815414</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524438</v>
       </c>
       <c r="H41" t="n">
         <v>91.29483210793288</v>
@@ -7409,16 +7409,16 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J41" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>457.138701796059</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L41" t="n">
-        <v>457.138701796059</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>1461.424803215117</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N41" t="n">
         <v>2437.675861701818</v>
@@ -7439,16 +7439,16 @@
         <v>4496.409262151238</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555193</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W41" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X41" t="n">
         <v>3031.702772793898</v>
@@ -7497,19 +7497,19 @@
         <v>91.29483210793288</v>
       </c>
       <c r="M42" t="n">
-        <v>91.29483210793288</v>
+        <v>1010.501184676971</v>
       </c>
       <c r="N42" t="n">
-        <v>464.3363977294885</v>
+        <v>1010.501184676971</v>
       </c>
       <c r="O42" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P42" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q42" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R42" t="n">
         <v>1899.982462688443</v>
@@ -7567,13 +7567,13 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910033</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557537</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090877</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M43" t="n">
         <v>1262.460299238252</v>
@@ -7582,13 +7582,13 @@
         <v>1675.269665473201</v>
       </c>
       <c r="O43" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P43" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
         <v>2543.247039960994</v>
@@ -7597,7 +7597,7 @@
         <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U43" t="n">
         <v>1957.693048850696</v>
@@ -7625,7 +7625,7 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D44" t="n">
         <v>1500.463591181375</v>
@@ -7634,49 +7634,49 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G44" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J44" t="n">
-        <v>91.29483210793289</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K44" t="n">
-        <v>91.29483210793289</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>457.1387017960599</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>1461.424803215118</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701819</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.820511852631</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010559</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.185270514742</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R44" t="n">
         <v>4564.741605396644</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151239</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U44" t="n">
         <v>4089.198683555192</v>
@@ -7719,34 +7719,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="N45" t="n">
-        <v>637.6199587024621</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="O45" t="n">
-        <v>637.6199587024621</v>
+        <v>980.7761101194045</v>
       </c>
       <c r="P45" t="n">
-        <v>1353.81767574096</v>
+        <v>1696.973827157903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R45" t="n">
         <v>1899.982462688443</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H46" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910037</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557541</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090881</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7828,10 +7828,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T46" t="n">
         <v>2201.842546468938</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>540.7736174091922</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>539.8928378760011</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>76.1989988461263</v>
       </c>
       <c r="O2" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>65.69167194305098</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>63.14896002761616</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8052,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>524.8608088099027</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8067,19 +8067,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>48.32332581574237</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>49.88715133764835</v>
+        <v>512.6210959166677</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.86334842179818</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>168.6249199982083</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,25 +8219,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>137.1187653537977</v>
+        <v>571.0335849150667</v>
       </c>
       <c r="O5" t="n">
-        <v>265.1773656466145</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>265.3617681008217</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>263.9110808951884</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8289,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,16 +8304,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>157.0781553765293</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>250.9582960128126</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>249.5572474954191</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
-        <v>250.5334445795689</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>112.8753951796666</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>248.5353072661908</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>250.2855937890149</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>250.1672069485769</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>362.1121742943703</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>381.2527255747681</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>555.5319924565615</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N11" t="n">
-        <v>938.2985531949868</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8781,16 +8781,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>398.5805034488241</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>41.5851847267952</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330639</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9018,13 +9018,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.9584781332581</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9170,22 +9170,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>613.2912277027119</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9255,10 +9255,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>398.5805034488242</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>407.8513047438615</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,7 +9416,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9480,28 +9480,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>398.5805034488242</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>698.6652660627502</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,13 +9653,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9711,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9729,10 +9729,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>407.8513047438605</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9948,34 +9948,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1027.22025995478</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
@@ -10200,19 +10200,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>575.0154519389184</v>
+        <v>742.2891030007354</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>407.8513047438615</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10425,7 +10425,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,22 +10434,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O33" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>407.8513047438605</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>379.344486654865</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10659,16 +10659,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>502.2252835908839</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10677,16 +10677,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,16 +10823,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>41.5851847267952</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10902,28 +10902,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>405.3038631060479</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11145,10 +11145,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N42" t="n">
-        <v>398.1526904575372</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>921.6378271075471</v>
@@ -11157,10 +11157,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>407.8513047438623</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11385,19 +11385,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>227.8062660976048</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>183.8529205572314</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>328.5505571867353</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402021</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>38.54620374177149</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>165.8930952940115</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1024827.17867739</v>
+        <v>1025949.043011271</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1036370.127104968</v>
+        <v>1053765.32196642</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1049875.347106637</v>
+        <v>1053765.32196642</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>824693.0877361733</v>
+        <v>1040817.659082469</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1072202.239761541</v>
+        <v>1040817.659082469</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1072202.239761541</v>
+        <v>1040817.659082469</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1072202.239761541</v>
+        <v>1040817.659082469</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1072202.239761541</v>
+        <v>1040817.659082469</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1072202.239761541</v>
+        <v>1040817.659082469</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1072202.239761541</v>
+        <v>1076539.122611472</v>
       </c>
     </row>
     <row r="13">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>168386.4303908728</v>
       </c>
       <c r="C3" t="n">
-        <v>64507.55493937695</v>
+        <v>17370.29543921412</v>
       </c>
       <c r="D3" t="n">
-        <v>72567.36134028652</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131260.5691270805</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
-        <v>97353.61936459709</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391435</v>
+        <v>131466.0563231695</v>
       </c>
       <c r="K3" t="n">
-        <v>86802.14823139329</v>
+        <v>13837.70917736454</v>
       </c>
       <c r="L3" t="n">
-        <v>52840.20922283726</v>
+        <v>28539.6810981117</v>
       </c>
       <c r="M3" t="n">
-        <v>109554.8194064698</v>
+        <v>145773.7708181578</v>
       </c>
       <c r="N3" t="n">
-        <v>58823.25323982983</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>306508.7100712666</v>
+        <v>175744.8878294022</v>
       </c>
       <c r="C4" t="n">
-        <v>253652.5321994022</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
-        <v>45979.3738562048</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
-        <v>89662.20424840873</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>89662.20424840874</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>89662.20424840874</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="I4" t="n">
-        <v>89662.20424840874</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>89662.20424840873</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>89662.20424840874</v>
+        <v>69803.23556604773</v>
       </c>
       <c r="M4" t="n">
+        <v>89662.20424840876</v>
+      </c>
+      <c r="N4" t="n">
         <v>89662.20424840873</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>89662.20424840876</v>
-      </c>
-      <c r="O4" t="n">
-        <v>89662.20424840874</v>
       </c>
       <c r="P4" t="n">
         <v>89662.20424840876</v>
@@ -26467,40 +26467,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64177.26375857541</v>
       </c>
       <c r="C5" t="n">
-        <v>47477.0135024679</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>54781.95096592087</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>72383.20046482542</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>72383.20046482542</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>72383.20046482542</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>72383.20046482542</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>72383.20046482541</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>80749.19025122613</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482544</v>
       </c>
       <c r="N5" t="n">
         <v>72383.20046482542</v>
@@ -26509,7 +26509,7 @@
         <v>72383.20046482542</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482544</v>
+        <v>72383.20046482542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351268.2039279829</v>
+        <v>-408345.1687100414</v>
       </c>
       <c r="C6" t="n">
-        <v>-365637.100641247</v>
+        <v>-258814.9487558201</v>
       </c>
       <c r="D6" t="n">
-        <v>-326059.0155091616</v>
+        <v>-241444.653316606</v>
       </c>
       <c r="E6" t="n">
-        <v>-232021.8939492061</v>
+        <v>-351604.9632591342</v>
       </c>
       <c r="F6" t="n">
-        <v>-259399.0240778312</v>
+        <v>-135865.6067024936</v>
       </c>
       <c r="G6" t="n">
+        <v>-135865.6067024936</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-135865.6067024936</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-135865.6067024936</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-267331.6630256631</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-149703.3158798582</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-179092.1069153856</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-307819.175531392</v>
+      </c>
+      <c r="N6" t="n">
         <v>-162045.4047132342</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-162045.4047132342</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-162045.4047132342</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-169401.8685616256</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-222616.7242717026</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-214885.6139360715</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-271600.224119704</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-220868.657953064</v>
       </c>
       <c r="O6" t="n">
         <v>-162045.4047132342</v>
@@ -26695,19 +26695,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O2" t="n">
         <v>35.67460137263964</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765693</v>
       </c>
       <c r="C4" t="n">
-        <v>227.7864062905904</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>901.0189303605407</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765693</v>
       </c>
       <c r="C4" t="n">
-        <v>199.6700961577707</v>
+        <v>53.76623813902484</v>
       </c>
       <c r="D4" t="n">
-        <v>233.6134994697438</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>439.6190246002065</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
-        <v>240.1664709886202</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281954</v>
+        <v>502.4615749765693</v>
       </c>
       <c r="K4" t="n">
-        <v>337.2686123814666</v>
+        <v>53.76623813902484</v>
       </c>
       <c r="L4" t="n">
-        <v>96.0149832460481</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.6190246002063</v>
+        <v>584.9575882335668</v>
       </c>
       <c r="N4" t="n">
-        <v>240.1664709886204</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765693</v>
       </c>
       <c r="K4" t="n">
-        <v>199.6700961577707</v>
+        <v>53.76623813902484</v>
       </c>
       <c r="L4" t="n">
-        <v>233.6134994697438</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.6190246002065</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
-        <v>240.1664709886202</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>36.47139038778337</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.52142919304239</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>115.6962903803109</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4398532622953</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.4994630599574</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>212.7896441635393</v>
+        <v>208.265378659482</v>
       </c>
       <c r="U4" t="n">
-        <v>249.2662938818791</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>193.9307641630306</v>
+        <v>308.3446727894963</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>126.1281144344226</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>179.8163925533398</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.4831615907345</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>10.13771288062721</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>14.36765752500318</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>13.11954800576859</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>49.59619772410835</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>51.10794642746097</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>66.99327837970955</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>74.65813289307465</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>213.4027168294472</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>128.0487154283647</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>129.5284158597475</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30180,7 +30180,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263953</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P37" t="n">
         <v>35.67460137263963</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.6746013726395</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263924</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263963</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.6746013726397</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -30639,7 +30639,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263876</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K43" t="n">
         <v>35.67460137263964</v>
@@ -30876,7 +30876,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="J46" t="n">
-        <v>35.6746013726392</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K46" t="n">
         <v>35.67460137263964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>502.4615749765693</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>502.4615749765693</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>38.91937601168028</v>
       </c>
       <c r="O2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.11631013281968</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>28.11631013281968</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>502.4615749765693</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,19 +34787,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.11631013281968</v>
+        <v>490.8502547118391</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.11631013281968</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>146.1257324997839</v>
       </c>
       <c r="P4" t="n">
-        <v>26.98029760220071</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,25 +34939,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>99.83914251935168</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="O5" t="n">
-        <v>227.7864062905904</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>227.7864062905904</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>227.7864062905904</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>135.7351271629876</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>227.7864062905904</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>227.7864062905904</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
-        <v>227.7864062905904</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>90.29995528818074</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>227.7864062905904</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>227.7864062905904</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>227.7864062905904</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>324.7212149383462</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9096973612264</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>518.1007295571297</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N11" t="n">
-        <v>901.0189303605407</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>376.8096622439954</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>3.273142294172274</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>267.0533324336321</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.2114398442796</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.74665008391035</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>575.9002683466879</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>376.8096622439955</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>93.74665008391035</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>369.5392623112385</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,7 +36136,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>376.8096622439955</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.74665008391035</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>661.2340031633184</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,13 +36373,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.74665008391035</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>369.5392623112376</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.74665008391035</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>264.4903601664146</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>393.9466430841758</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>430.8117680092566</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>416.9791578130798</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>394.6929131703801</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>329.2091588695093</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>163.9575612117931</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>989.7889970553483</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>551.8435622166962</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>369.5392623112385</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>369.5392623112376</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>342.064863820419</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37397,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>416.9791578130798</v>
       </c>
       <c r="O37" t="n">
-        <v>394.69291317038</v>
+        <v>394.6929131703801</v>
       </c>
       <c r="P37" t="n">
         <v>329.2091588695093</v>
@@ -37543,16 +37543,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>3.273142294172274</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391035</v>
       </c>
       <c r="K40" t="n">
-        <v>264.4903601664146</v>
+        <v>264.4903601664142</v>
       </c>
       <c r="L40" t="n">
         <v>393.9466430841758</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>369.5392623112385</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N42" t="n">
-        <v>376.8096622439955</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>898.4659373853249</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008390949</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>369.5392623112394</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38105,19 +38105,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008390993</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K46" t="n">
         <v>264.4903601664146</v>
